--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AVERAGE_1_9_matched_error_tables_first.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AVERAGE_1_9_matched_error_tables_first.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01384939437003609</v>
+        <v>0.001217196552899444</v>
       </c>
       <c r="C2">
-        <v>2.218786637292586</v>
+        <v>2.134347703298304</v>
       </c>
       <c r="D2">
-        <v>21.84152128370215</v>
+        <v>20.89521853204074</v>
       </c>
       <c r="E2">
-        <v>4.673491337715536</v>
+        <v>4.571128802827672</v>
       </c>
       <c r="F2">
-        <v>4.783449883342865</v>
+        <v>4.673863460101999</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.1108952796442341</v>
+        <v>-0.08714184739790505</v>
       </c>
       <c r="C3">
-        <v>2.528008180603066</v>
+        <v>2.431811455565427</v>
       </c>
       <c r="D3">
-        <v>20.81929152853822</v>
+        <v>19.88066375958591</v>
       </c>
       <c r="E3">
-        <v>4.562816183952431</v>
+        <v>4.458773795516645</v>
       </c>
       <c r="F3">
-        <v>4.674114189209051</v>
+        <v>4.562828807598136</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.5909554399684317</v>
+        <v>-0.5723694534419483</v>
       </c>
       <c r="C4">
-        <v>1.803239635867731</v>
+        <v>1.7269258304889</v>
       </c>
       <c r="D4">
-        <v>9.880027863097968</v>
+        <v>9.411467503488769</v>
       </c>
       <c r="E4">
-        <v>3.143251161313389</v>
+        <v>3.067811516943107</v>
       </c>
       <c r="F4">
-        <v>3.167399652557398</v>
+        <v>3.088373965028863</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.1812640771482746</v>
+        <v>-0.1669402324491583</v>
       </c>
       <c r="C5">
-        <v>1.430345698091154</v>
+        <v>1.364089054028298</v>
       </c>
       <c r="D5">
-        <v>9.69518460969652</v>
+        <v>9.210978866053001</v>
       </c>
       <c r="E5">
-        <v>3.113709140189</v>
+        <v>3.034959450479199</v>
       </c>
       <c r="F5">
-        <v>3.19360672922055</v>
+        <v>3.10908851507502</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.1687012678555518</v>
+        <v>-0.1633360453900471</v>
       </c>
       <c r="C6">
-        <v>1.931467348941691</v>
+        <v>1.833324964313758</v>
       </c>
       <c r="D6">
-        <v>13.19207313971304</v>
+        <v>12.49798808868182</v>
       </c>
       <c r="E6">
-        <v>3.632089362847924</v>
+        <v>3.535249367255699</v>
       </c>
       <c r="F6">
-        <v>3.733355487989051</v>
+        <v>3.628244747611019</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.2974797958422067</v>
+        <v>-0.2690867049885003</v>
       </c>
       <c r="C7">
-        <v>1.914100007500023</v>
+        <v>1.819627553723605</v>
       </c>
       <c r="D7">
-        <v>11.03882254836823</v>
+        <v>10.42808925027345</v>
       </c>
       <c r="E7">
-        <v>3.322472354793675</v>
+        <v>3.229255216032553</v>
       </c>
       <c r="F7">
-        <v>3.410971099173742</v>
+        <v>3.311319878293547</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.1960625496366059</v>
+        <v>-0.2014155535992504</v>
       </c>
       <c r="C8">
-        <v>1.836194132777806</v>
+        <v>1.74506880832038</v>
       </c>
       <c r="D8">
-        <v>11.49911931585798</v>
+        <v>10.82754791611375</v>
       </c>
       <c r="E8">
-        <v>3.391035139283871</v>
+        <v>3.290523957687248</v>
       </c>
       <c r="F8">
-        <v>3.496387284801343</v>
+        <v>3.385434377086962</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.08754112464292177</v>
+        <v>-0.09017090610257712</v>
       </c>
       <c r="C9">
-        <v>1.885965571769658</v>
+        <v>1.776193825283892</v>
       </c>
       <c r="D9">
-        <v>11.84300580786338</v>
+        <v>11.1038679904649</v>
       </c>
       <c r="E9">
-        <v>3.441366851683119</v>
+        <v>3.332246688116727</v>
       </c>
       <c r="F9">
-        <v>3.56100041511606</v>
+        <v>3.440269322504859</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1199190194779042</v>
+        <v>-0.1106871006837081</v>
       </c>
       <c r="C10">
-        <v>2.158917855533927</v>
+        <v>2.016227315994001</v>
       </c>
       <c r="D10">
-        <v>14.2320859383386</v>
+        <v>13.2833031734348</v>
       </c>
       <c r="E10">
-        <v>3.772543696014481</v>
+        <v>3.644626616463585</v>
       </c>
       <c r="F10">
-        <v>3.912975212128183</v>
+        <v>3.77080678263623</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.08524881789416562</v>
+        <v>-0.1031043840192009</v>
       </c>
       <c r="C11">
-        <v>2.086633677165819</v>
+        <v>1.961533181914308</v>
       </c>
       <c r="D11">
-        <v>13.79238970195238</v>
+        <v>12.81524593535968</v>
       </c>
       <c r="E11">
-        <v>3.713810671258348</v>
+        <v>3.579838814159051</v>
       </c>
       <c r="F11">
-        <v>3.864438191520646</v>
+        <v>3.713433160618765</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AVERAGE_1_9_matched_error_tables_first.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AVERAGE_1_9_matched_error_tables_first.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.001217196552899444</v>
+        <v>-0.08714184739790505</v>
       </c>
       <c r="C2">
-        <v>2.134347703298304</v>
+        <v>2.431811455565427</v>
       </c>
       <c r="D2">
-        <v>20.89521853204074</v>
+        <v>19.88066375958591</v>
       </c>
       <c r="E2">
-        <v>4.571128802827672</v>
+        <v>4.458773795516645</v>
       </c>
       <c r="F2">
-        <v>4.673863460101999</v>
+        <v>4.562828807598136</v>
       </c>
       <c r="G2">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.08714184739790505</v>
+        <v>-0.5723694534419483</v>
       </c>
       <c r="C3">
-        <v>2.431811455565427</v>
+        <v>1.7269258304889</v>
       </c>
       <c r="D3">
-        <v>19.88066375958591</v>
+        <v>9.411467503488769</v>
       </c>
       <c r="E3">
-        <v>4.458773795516645</v>
+        <v>3.067811516943107</v>
       </c>
       <c r="F3">
-        <v>4.562828807598136</v>
+        <v>3.088373965028863</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.5723694534419483</v>
+        <v>-0.1669402324491583</v>
       </c>
       <c r="C4">
-        <v>1.7269258304889</v>
+        <v>1.364089054028298</v>
       </c>
       <c r="D4">
-        <v>9.411467503488769</v>
+        <v>9.210978866053001</v>
       </c>
       <c r="E4">
-        <v>3.067811516943107</v>
+        <v>3.034959450479199</v>
       </c>
       <c r="F4">
-        <v>3.088373965028863</v>
+        <v>3.10908851507502</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.1669402324491583</v>
+        <v>-0.1633360453900471</v>
       </c>
       <c r="C5">
-        <v>1.364089054028298</v>
+        <v>1.833324964313758</v>
       </c>
       <c r="D5">
-        <v>9.210978866053001</v>
+        <v>12.49798808868182</v>
       </c>
       <c r="E5">
-        <v>3.034959450479199</v>
+        <v>3.535249367255699</v>
       </c>
       <c r="F5">
-        <v>3.10908851507502</v>
+        <v>3.628244747611019</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.1633360453900471</v>
+        <v>-0.2690867049885003</v>
       </c>
       <c r="C6">
-        <v>1.833324964313758</v>
+        <v>1.819627553723605</v>
       </c>
       <c r="D6">
-        <v>12.49798808868182</v>
+        <v>10.42808925027345</v>
       </c>
       <c r="E6">
-        <v>3.535249367255699</v>
+        <v>3.229255216032553</v>
       </c>
       <c r="F6">
-        <v>3.628244747611019</v>
+        <v>3.311319878293547</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.2690867049885003</v>
+        <v>-0.2014155535992504</v>
       </c>
       <c r="C7">
-        <v>1.819627553723605</v>
+        <v>1.74506880832038</v>
       </c>
       <c r="D7">
-        <v>10.42808925027345</v>
+        <v>10.82754791611375</v>
       </c>
       <c r="E7">
-        <v>3.229255216032553</v>
+        <v>3.290523957687248</v>
       </c>
       <c r="F7">
-        <v>3.311319878293547</v>
+        <v>3.385434377086962</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.2014155535992504</v>
+        <v>-0.09017090610257712</v>
       </c>
       <c r="C8">
-        <v>1.74506880832038</v>
+        <v>1.776193825283892</v>
       </c>
       <c r="D8">
-        <v>10.82754791611375</v>
+        <v>11.1038679904649</v>
       </c>
       <c r="E8">
-        <v>3.290523957687248</v>
+        <v>3.332246688116727</v>
       </c>
       <c r="F8">
-        <v>3.385434377086962</v>
+        <v>3.440269322504859</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.09017090610257712</v>
+        <v>-0.1106871006837081</v>
       </c>
       <c r="C9">
-        <v>1.776193825283892</v>
+        <v>2.016227315994001</v>
       </c>
       <c r="D9">
-        <v>11.1038679904649</v>
+        <v>13.2833031734348</v>
       </c>
       <c r="E9">
-        <v>3.332246688116727</v>
+        <v>3.644626616463585</v>
       </c>
       <c r="F9">
-        <v>3.440269322504859</v>
+        <v>3.77080678263623</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1106871006837081</v>
+        <v>-0.1031043840192009</v>
       </c>
       <c r="C10">
-        <v>2.016227315994001</v>
+        <v>1.961533181914308</v>
       </c>
       <c r="D10">
-        <v>13.2833031734348</v>
+        <v>12.81524593535968</v>
       </c>
       <c r="E10">
-        <v>3.644626616463585</v>
+        <v>3.579838814159051</v>
       </c>
       <c r="F10">
-        <v>3.77080678263623</v>
+        <v>3.713433160618765</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.1031043840192009</v>
+        <v>-0.07450036746243573</v>
       </c>
       <c r="C11">
-        <v>1.961533181914308</v>
+        <v>2.109179429444709</v>
       </c>
       <c r="D11">
-        <v>12.81524593535968</v>
+        <v>13.17112458345713</v>
       </c>
       <c r="E11">
-        <v>3.579838814159051</v>
+        <v>3.62920440089245</v>
       </c>
       <c r="F11">
-        <v>3.713433160618765</v>
+        <v>3.776599723110351</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AVERAGE_1_9_matched_error_tables_first.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AVERAGE_1_9_matched_error_tables_first.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.08714184739790505</v>
+        <v>0.001217196552899444</v>
       </c>
       <c r="C2">
-        <v>2.431811455565427</v>
+        <v>2.134347703298304</v>
       </c>
       <c r="D2">
-        <v>19.88066375958591</v>
+        <v>20.89521853204074</v>
       </c>
       <c r="E2">
-        <v>4.458773795516645</v>
+        <v>4.571128802827672</v>
       </c>
       <c r="F2">
-        <v>4.562828807598136</v>
+        <v>4.673863460101999</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.5723694534419483</v>
+        <v>-0.08714184739790505</v>
       </c>
       <c r="C3">
-        <v>1.7269258304889</v>
+        <v>2.431811455565427</v>
       </c>
       <c r="D3">
-        <v>9.411467503488769</v>
+        <v>19.88066375958591</v>
       </c>
       <c r="E3">
-        <v>3.067811516943107</v>
+        <v>4.458773795516645</v>
       </c>
       <c r="F3">
-        <v>3.088373965028863</v>
+        <v>4.562828807598136</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.1669402324491583</v>
+        <v>-0.5723694534419483</v>
       </c>
       <c r="C4">
-        <v>1.364089054028298</v>
+        <v>1.7269258304889</v>
       </c>
       <c r="D4">
-        <v>9.210978866053001</v>
+        <v>9.411467503488769</v>
       </c>
       <c r="E4">
-        <v>3.034959450479199</v>
+        <v>3.067811516943107</v>
       </c>
       <c r="F4">
-        <v>3.10908851507502</v>
+        <v>3.088373965028863</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.1633360453900471</v>
+        <v>-0.1669402324491583</v>
       </c>
       <c r="C5">
-        <v>1.833324964313758</v>
+        <v>1.364089054028298</v>
       </c>
       <c r="D5">
-        <v>12.49798808868182</v>
+        <v>9.210978866053001</v>
       </c>
       <c r="E5">
-        <v>3.535249367255699</v>
+        <v>3.034959450479199</v>
       </c>
       <c r="F5">
-        <v>3.628244747611019</v>
+        <v>3.10908851507502</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.2690867049885003</v>
+        <v>-0.1633360453900471</v>
       </c>
       <c r="C6">
-        <v>1.819627553723605</v>
+        <v>1.833324964313758</v>
       </c>
       <c r="D6">
-        <v>10.42808925027345</v>
+        <v>12.49798808868182</v>
       </c>
       <c r="E6">
-        <v>3.229255216032553</v>
+        <v>3.535249367255699</v>
       </c>
       <c r="F6">
-        <v>3.311319878293547</v>
+        <v>3.628244747611019</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.2014155535992504</v>
+        <v>-0.2690867049885003</v>
       </c>
       <c r="C7">
-        <v>1.74506880832038</v>
+        <v>1.819627553723605</v>
       </c>
       <c r="D7">
-        <v>10.82754791611375</v>
+        <v>10.42808925027345</v>
       </c>
       <c r="E7">
-        <v>3.290523957687248</v>
+        <v>3.229255216032553</v>
       </c>
       <c r="F7">
-        <v>3.385434377086962</v>
+        <v>3.311319878293547</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.09017090610257712</v>
+        <v>-0.2014155535992504</v>
       </c>
       <c r="C8">
-        <v>1.776193825283892</v>
+        <v>1.74506880832038</v>
       </c>
       <c r="D8">
-        <v>11.1038679904649</v>
+        <v>10.82754791611375</v>
       </c>
       <c r="E8">
-        <v>3.332246688116727</v>
+        <v>3.290523957687248</v>
       </c>
       <c r="F8">
-        <v>3.440269322504859</v>
+        <v>3.385434377086962</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.1106871006837081</v>
+        <v>-0.09017090610257712</v>
       </c>
       <c r="C9">
-        <v>2.016227315994001</v>
+        <v>1.776193825283892</v>
       </c>
       <c r="D9">
-        <v>13.2833031734348</v>
+        <v>11.1038679904649</v>
       </c>
       <c r="E9">
-        <v>3.644626616463585</v>
+        <v>3.332246688116727</v>
       </c>
       <c r="F9">
-        <v>3.77080678263623</v>
+        <v>3.440269322504859</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1031043840192009</v>
+        <v>-0.1106871006837081</v>
       </c>
       <c r="C10">
-        <v>1.961533181914308</v>
+        <v>2.016227315994001</v>
       </c>
       <c r="D10">
-        <v>12.81524593535968</v>
+        <v>13.2833031734348</v>
       </c>
       <c r="E10">
-        <v>3.579838814159051</v>
+        <v>3.644626616463585</v>
       </c>
       <c r="F10">
-        <v>3.713433160618765</v>
+        <v>3.77080678263623</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.07450036746243573</v>
+        <v>-0.1031043840192009</v>
       </c>
       <c r="C11">
-        <v>2.109179429444709</v>
+        <v>1.961533181914308</v>
       </c>
       <c r="D11">
-        <v>13.17112458345713</v>
+        <v>12.81524593535968</v>
       </c>
       <c r="E11">
-        <v>3.62920440089245</v>
+        <v>3.579838814159051</v>
       </c>
       <c r="F11">
-        <v>3.776599723110351</v>
+        <v>3.713433160618765</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
